--- a/data-for-figs/Database_comparisons/Database_comparisons.xlsx
+++ b/data-for-figs/Database_comparisons/Database_comparisons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="460" windowWidth="24560" windowHeight="13580" tabRatio="500"/>
+    <workbookView xWindow="1400" yWindow="460" windowWidth="24560" windowHeight="13580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="read count differences" sheetId="5" r:id="rId1"/>
@@ -1290,9 +1290,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1306,6 +1303,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1590,7 +1590,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1612,19 +1612,19 @@
       <c r="A2" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>342</v>
       </c>
     </row>
@@ -1632,19 +1632,19 @@
       <c r="A3" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>641720</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>3663394</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>347156</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>146767</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>374</v>
       </c>
     </row>
@@ -1652,19 +1652,19 @@
       <c r="A4" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>88561</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>246383</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>48294</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>374</v>
       </c>
     </row>
@@ -1672,19 +1672,19 @@
       <c r="A5" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>72405</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>120568</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>48294</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>374</v>
       </c>
     </row>
@@ -1692,19 +1692,19 @@
       <c r="A6" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>1401802</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>141802</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>110425</v>
       </c>
     </row>
@@ -1738,11 +1738,11 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4580,8 +4580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4836,7 +4836,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data-for-figs/Database_comparisons/Database_comparisons.xlsx
+++ b/data-for-figs/Database_comparisons/Database_comparisons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="460" windowWidth="24560" windowHeight="13580" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="24560" windowHeight="13580" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="read count differences" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="379">
   <si>
     <t>Sequence</t>
   </si>
@@ -1165,13 +1165,27 @@
   </si>
   <si>
     <t>CO1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Silva 99% </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>a</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1201,6 +1215,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1589,7 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -4580,7 +4600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -4835,8 +4855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4850,7 +4870,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -4864,7 +4884,7 @@
         <v>256</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>156</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">

--- a/data-for-figs/Database_comparisons/Database_comparisons.xlsx
+++ b/data-for-figs/Database_comparisons/Database_comparisons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="24560" windowHeight="13580" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="2800" yWindow="6040" windowWidth="24560" windowHeight="13580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="read count differences" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="381">
   <si>
     <t>Sequence</t>
   </si>
@@ -1138,9 +1138,6 @@
   </si>
   <si>
     <t>s</t>
-  </si>
-  <si>
-    <t>Table X.  Number of reads included in the databases used for comparisons</t>
   </si>
   <si>
     <t>Metabarcode</t>
@@ -1180,12 +1177,21 @@
       <t>a</t>
     </r>
   </si>
+  <si>
+    <t>Total Reads</t>
+  </si>
+  <si>
+    <t>Table X.  Number of reads and unique taxonomic paths (TP) included in the databases used for comparisons</t>
+  </si>
+  <si>
+    <t>Unique TP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1222,6 +1228,16 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1231,7 +1247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1277,13 +1293,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1328,10 +1412,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1607,129 +1729,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="11" width="12.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="B4" s="24">
+        <v>641720</v>
+      </c>
+      <c r="C4" s="31">
+        <v>26234</v>
+      </c>
+      <c r="D4" s="24">
+        <v>3663394</v>
+      </c>
+      <c r="E4" s="18">
+        <v>29601</v>
+      </c>
+      <c r="F4" s="24">
+        <v>347156</v>
+      </c>
+      <c r="G4" s="33">
+        <v>13669</v>
+      </c>
+      <c r="H4" s="24">
+        <v>146767</v>
+      </c>
+      <c r="I4" s="33">
+        <v>3023</v>
+      </c>
+      <c r="J4" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="B3" s="17">
-        <v>641720</v>
-      </c>
-      <c r="C3" s="17">
-        <v>3663394</v>
-      </c>
-      <c r="D3" s="17">
-        <v>347156</v>
-      </c>
-      <c r="E3" s="17">
-        <v>146767</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="K4" s="18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="B5" s="24">
+        <v>88561</v>
+      </c>
+      <c r="C5" s="28">
+        <v>14999</v>
+      </c>
+      <c r="D5" s="17">
+        <v>246383</v>
+      </c>
+      <c r="E5" s="33">
+        <v>15806</v>
+      </c>
+      <c r="F5" s="24">
+        <v>48294</v>
+      </c>
+      <c r="G5" s="28">
+        <v>7574</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="B4" s="17">
-        <v>88561</v>
-      </c>
-      <c r="C4" s="17">
-        <v>246383</v>
-      </c>
-      <c r="D4" s="17">
+      <c r="B6" s="24">
+        <v>72405</v>
+      </c>
+      <c r="C6" s="28">
+        <v>18114</v>
+      </c>
+      <c r="D6" s="17">
+        <v>120568</v>
+      </c>
+      <c r="E6" s="18">
+        <v>18680</v>
+      </c>
+      <c r="F6" s="24">
         <v>48294</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="G6" s="28">
+        <v>7574</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="B5" s="17">
-        <v>72405</v>
-      </c>
-      <c r="C5" s="17">
-        <v>120568</v>
-      </c>
-      <c r="D5" s="17">
-        <v>48294</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B6" s="19">
+      <c r="B7" s="25">
         <v>1401802</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C7" s="29">
+        <v>40972</v>
+      </c>
+      <c r="D7" s="19">
         <v>141802</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="E7" s="20">
+        <v>41107</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="J7" s="19">
         <v>110425</v>
       </c>
+      <c r="K7" s="32">
+        <v>31463</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4855,7 +5080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -4884,7 +5109,7 @@
         <v>256</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
